--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H2">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I2">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J2">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>161.8124489154597</v>
+        <v>178.053939542675</v>
       </c>
       <c r="R2">
-        <v>161.8124489154597</v>
+        <v>712.2157581707</v>
       </c>
       <c r="S2">
-        <v>0.004054326095479436</v>
+        <v>0.003940726623831687</v>
       </c>
       <c r="T2">
-        <v>0.004054326095479436</v>
+        <v>0.002120804149671023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H3">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I3">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J3">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>624.0250856071216</v>
+        <v>691.9963206469851</v>
       </c>
       <c r="R3">
-        <v>624.0250856071216</v>
+        <v>4151.97792388191</v>
       </c>
       <c r="S3">
-        <v>0.0156353927387414</v>
+        <v>0.01531540572127334</v>
       </c>
       <c r="T3">
-        <v>0.0156353927387414</v>
+        <v>0.01236357369138801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H4">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I4">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J4">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>895.6005274846558</v>
+        <v>952.4168915274651</v>
       </c>
       <c r="R4">
-        <v>895.6005274846558</v>
+        <v>5714.501349164791</v>
       </c>
       <c r="S4">
-        <v>0.02243990875883267</v>
+        <v>0.02107908766899115</v>
       </c>
       <c r="T4">
-        <v>0.02243990875883267</v>
+        <v>0.01701638588527923</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H5">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I5">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J5">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>892.581305231983</v>
+        <v>942.5168407487286</v>
       </c>
       <c r="R5">
-        <v>892.581305231983</v>
+        <v>5655.10104449237</v>
       </c>
       <c r="S5">
-        <v>0.02236425999602668</v>
+        <v>0.02085997769714073</v>
       </c>
       <c r="T5">
-        <v>0.02236425999602668</v>
+        <v>0.01683950632147323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H6">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I6">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J6">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>121.6934117110043</v>
+        <v>139.2891338137401</v>
       </c>
       <c r="R6">
-        <v>121.6934117110043</v>
+        <v>835.7348028824401</v>
       </c>
       <c r="S6">
-        <v>0.003049115059160996</v>
+        <v>0.003082775924195164</v>
       </c>
       <c r="T6">
-        <v>0.003049115059160996</v>
+        <v>0.002488613622548866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H7">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I7">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J7">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>291.6203964870649</v>
+        <v>305.38283394391</v>
       </c>
       <c r="R7">
-        <v>291.6203964870649</v>
+        <v>1221.53133577564</v>
       </c>
       <c r="S7">
-        <v>0.007306756627045936</v>
+        <v>0.00675879605514432</v>
       </c>
       <c r="T7">
-        <v>0.007306756627045936</v>
+        <v>0.003637421239485208</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H8">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I8">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J8">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>1185.277122401964</v>
+        <v>1394.578797286267</v>
       </c>
       <c r="R8">
-        <v>1185.277122401964</v>
+        <v>8367.4727837176</v>
       </c>
       <c r="S8">
-        <v>0.02969796205383267</v>
+        <v>0.03086510643691765</v>
       </c>
       <c r="T8">
-        <v>0.02969796205383267</v>
+        <v>0.0249162852666262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H9">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I9">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J9">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>4570.987354387556</v>
+        <v>5419.949702056986</v>
       </c>
       <c r="R9">
-        <v>4570.987354387556</v>
+        <v>48779.54731851287</v>
       </c>
       <c r="S9">
-        <v>0.1145293420698572</v>
+        <v>0.1199554480264981</v>
       </c>
       <c r="T9">
-        <v>0.1145293420698572</v>
+        <v>0.1452535487811845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H10">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I10">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J10">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>6560.279033866562</v>
+        <v>7459.651870174746</v>
       </c>
       <c r="R10">
-        <v>6560.279033866562</v>
+        <v>67136.86683157271</v>
       </c>
       <c r="S10">
-        <v>0.1643724611975184</v>
+        <v>0.1650985583628037</v>
       </c>
       <c r="T10">
-        <v>0.1643724611975184</v>
+        <v>0.1999171517041671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H11">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I11">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J11">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>6538.163213436642</v>
+        <v>7382.111317331352</v>
       </c>
       <c r="R11">
-        <v>6538.163213436642</v>
+        <v>66439.00185598216</v>
       </c>
       <c r="S11">
-        <v>0.1638183335732662</v>
+        <v>0.1633824148065228</v>
       </c>
       <c r="T11">
-        <v>0.1638183335732662</v>
+        <v>0.1978390806713892</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H12">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I12">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J12">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>891.4049432837909</v>
+        <v>1090.959701357547</v>
       </c>
       <c r="R12">
-        <v>891.4049432837909</v>
+        <v>9818.637312217921</v>
       </c>
       <c r="S12">
-        <v>0.02233478541000904</v>
+        <v>0.02414534579638856</v>
       </c>
       <c r="T12">
-        <v>0.02233478541000904</v>
+        <v>0.02923749793089478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H13">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I13">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J13">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>2136.121087707514</v>
+        <v>2391.861850219253</v>
       </c>
       <c r="R13">
-        <v>2136.121087707514</v>
+        <v>14351.17110131552</v>
       </c>
       <c r="S13">
-        <v>0.05352203447289313</v>
+        <v>0.052937181271562</v>
       </c>
       <c r="T13">
-        <v>0.05352203447289313</v>
+        <v>0.04273427381399509</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H14">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I14">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J14">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>100.9958247418876</v>
+        <v>0.3535053668883334</v>
       </c>
       <c r="R14">
-        <v>100.9958247418876</v>
+        <v>2.12103220133</v>
       </c>
       <c r="S14">
-        <v>0.002530522283853659</v>
+        <v>7.823853909339428E-06</v>
       </c>
       <c r="T14">
-        <v>0.002530522283853659</v>
+        <v>6.31591458425496E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H15">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I15">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J15">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>389.4875122583779</v>
+        <v>1.373878128414334</v>
       </c>
       <c r="R15">
-        <v>389.4875122583779</v>
+        <v>12.364903155729</v>
       </c>
       <c r="S15">
-        <v>0.00975888688043729</v>
+        <v>3.040695495111355E-05</v>
       </c>
       <c r="T15">
-        <v>0.00975888688043729</v>
+        <v>3.68196541878048E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H16">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I16">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J16">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>558.9923057146225</v>
+        <v>1.890912852222334</v>
       </c>
       <c r="R16">
-        <v>558.9923057146225</v>
+        <v>17.018215670001</v>
       </c>
       <c r="S16">
-        <v>0.01400595014426288</v>
+        <v>4.185007441698368E-05</v>
       </c>
       <c r="T16">
-        <v>0.01400595014426288</v>
+        <v>5.067607954313774E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H17">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I17">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J17">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>557.1078472348732</v>
+        <v>1.871257454022556</v>
       </c>
       <c r="R17">
-        <v>557.1078472348732</v>
+        <v>16.841317086203</v>
       </c>
       <c r="S17">
-        <v>0.01395873369558107</v>
+        <v>4.141505707793001E-05</v>
       </c>
       <c r="T17">
-        <v>0.01395873369558107</v>
+        <v>5.014931887225154E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H18">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I18">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J18">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>75.95538269016774</v>
+        <v>0.2765423583373334</v>
       </c>
       <c r="R18">
-        <v>75.95538269016774</v>
+        <v>2.488881225036001</v>
       </c>
       <c r="S18">
-        <v>0.001903116182944393</v>
+        <v>6.120492682813909E-06</v>
       </c>
       <c r="T18">
-        <v>0.001903116182944393</v>
+        <v>7.4112789130812E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H19">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I19">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J19">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>182.0159243134319</v>
+        <v>0.6063020623526667</v>
       </c>
       <c r="R19">
-        <v>182.0159243134319</v>
+        <v>3.637812374116</v>
       </c>
       <c r="S19">
-        <v>0.004560538553633204</v>
+        <v>1.341880266920219E-05</v>
       </c>
       <c r="T19">
-        <v>0.004560538553633204</v>
+        <v>1.083251457194057E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H20">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I20">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J20">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>713.7445213935384</v>
+        <v>1.192552860928333</v>
       </c>
       <c r="R20">
-        <v>713.7445213935384</v>
+        <v>7.155317165570001</v>
       </c>
       <c r="S20">
-        <v>0.01788337707009904</v>
+        <v>2.639382662050324E-05</v>
       </c>
       <c r="T20">
-        <v>0.01788337707009904</v>
+        <v>2.130678261869641E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H21">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I21">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J21">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>2752.53535218985</v>
+        <v>4.634787604582334</v>
       </c>
       <c r="R21">
-        <v>2752.53535218985</v>
+        <v>41.713088441241</v>
       </c>
       <c r="S21">
-        <v>0.06896673267050954</v>
+        <v>0.0001025780780593466</v>
       </c>
       <c r="T21">
-        <v>0.06896673267050954</v>
+        <v>0.0001242113643890696</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H22">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I22">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J22">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>3950.437522784835</v>
+        <v>6.379007910214333</v>
       </c>
       <c r="R22">
-        <v>3950.437522784835</v>
+        <v>57.411071191929</v>
       </c>
       <c r="S22">
-        <v>0.09898102429409239</v>
+        <v>0.0001411815226890255</v>
       </c>
       <c r="T22">
-        <v>0.09898102429409239</v>
+        <v>0.0001709561135429403</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H23">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I23">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J23">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>3937.119923575639</v>
+        <v>6.312700285065223</v>
       </c>
       <c r="R23">
-        <v>3937.119923575639</v>
+        <v>56.81430256558701</v>
       </c>
       <c r="S23">
-        <v>0.09864734236563218</v>
+        <v>0.0001397139886122211</v>
       </c>
       <c r="T23">
-        <v>0.09864734236563218</v>
+        <v>0.0001691790826859002</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H24">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I24">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J24">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>536.7819749381414</v>
+        <v>0.9329176060493335</v>
       </c>
       <c r="R24">
-        <v>536.7819749381414</v>
+        <v>8.396258454444002</v>
       </c>
       <c r="S24">
-        <v>0.01344945449599936</v>
+        <v>2.064752544898787E-05</v>
       </c>
       <c r="T24">
-        <v>0.01344945449599936</v>
+        <v>2.500200194619592E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.238679</v>
+      </c>
+      <c r="I25">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J25">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.708558</v>
+      </c>
+      <c r="N25">
+        <v>51.417116</v>
+      </c>
+      <c r="O25">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P25">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q25">
+        <v>2.045364304960667</v>
+      </c>
+      <c r="R25">
+        <v>12.272185829764</v>
+      </c>
+      <c r="S25">
+        <v>4.526842592023448E-05</v>
+      </c>
+      <c r="T25">
+        <v>3.654356469189415E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.606016</v>
+      </c>
+      <c r="H26">
+        <v>25.818048</v>
+      </c>
+      <c r="I26">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J26">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>14.989415</v>
+      </c>
+      <c r="N26">
+        <v>29.97883</v>
+      </c>
+      <c r="O26">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P26">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q26">
+        <v>128.99914532064</v>
+      </c>
+      <c r="R26">
+        <v>773.99487192384</v>
+      </c>
+      <c r="S26">
+        <v>0.00285503577018435</v>
+      </c>
+      <c r="T26">
+        <v>0.002304767224494277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.606016</v>
+      </c>
+      <c r="H27">
+        <v>25.818048</v>
+      </c>
+      <c r="I27">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J27">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>58.255493</v>
+      </c>
+      <c r="N27">
+        <v>174.766479</v>
+      </c>
+      <c r="O27">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P27">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q27">
+        <v>501.347704845888</v>
+      </c>
+      <c r="R27">
+        <v>4512.129343612993</v>
+      </c>
+      <c r="S27">
+        <v>0.01109593111703986</v>
+      </c>
+      <c r="T27">
+        <v>0.01343601644025025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.606016</v>
+      </c>
+      <c r="H28">
+        <v>25.818048</v>
+      </c>
+      <c r="I28">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J28">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>80.178917</v>
+      </c>
+      <c r="N28">
+        <v>240.536751</v>
+      </c>
+      <c r="O28">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P28">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q28">
+        <v>690.021042564672</v>
+      </c>
+      <c r="R28">
+        <v>6210.189383082048</v>
+      </c>
+      <c r="S28">
+        <v>0.01527168845813143</v>
+      </c>
+      <c r="T28">
+        <v>0.01849242348654504</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.606016</v>
+      </c>
+      <c r="H29">
+        <v>25.818048</v>
+      </c>
+      <c r="I29">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J29">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N29">
+        <v>238.036453</v>
+      </c>
+      <c r="O29">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P29">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q29">
+        <v>682.8485077004161</v>
+      </c>
+      <c r="R29">
+        <v>6145.636569303745</v>
+      </c>
+      <c r="S29">
+        <v>0.01511294443273928</v>
+      </c>
+      <c r="T29">
+        <v>0.01830020101215666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.606016</v>
+      </c>
+      <c r="H30">
+        <v>25.818048</v>
+      </c>
+      <c r="I30">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J30">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.726012</v>
+      </c>
+      <c r="N30">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O30">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P30">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q30">
+        <v>100.914246888192</v>
+      </c>
+      <c r="R30">
+        <v>908.2282219937282</v>
+      </c>
+      <c r="S30">
+        <v>0.002233454988177386</v>
+      </c>
+      <c r="T30">
+        <v>0.002704481275449368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.606016</v>
+      </c>
+      <c r="H31">
+        <v>25.818048</v>
+      </c>
+      <c r="I31">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J31">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.708558</v>
+      </c>
+      <c r="N31">
+        <v>51.417116</v>
+      </c>
+      <c r="O31">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P31">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q31">
+        <v>221.248261484928</v>
+      </c>
+      <c r="R31">
+        <v>1327.489568909568</v>
+      </c>
+      <c r="S31">
+        <v>0.004896712292631769</v>
+      </c>
+      <c r="T31">
+        <v>0.003952938915055067</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.592882</v>
+      </c>
+      <c r="H32">
+        <v>107.185764</v>
+      </c>
+      <c r="I32">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J32">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>14.989415</v>
+      </c>
+      <c r="N32">
+        <v>29.97883</v>
+      </c>
+      <c r="O32">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P32">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q32">
+        <v>803.3259493440301</v>
+      </c>
+      <c r="R32">
+        <v>3213.30379737612</v>
+      </c>
+      <c r="S32">
+        <v>0.0177793760942658</v>
+      </c>
+      <c r="T32">
+        <v>0.009568431966645138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.592882</v>
+      </c>
+      <c r="H33">
+        <v>107.185764</v>
+      </c>
+      <c r="I33">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J33">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>58.255493</v>
+      </c>
+      <c r="N33">
+        <v>174.766479</v>
+      </c>
+      <c r="O33">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P33">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q33">
+        <v>3122.079762200826</v>
+      </c>
+      <c r="R33">
+        <v>18732.47857320496</v>
+      </c>
+      <c r="S33">
+        <v>0.06909851515912185</v>
+      </c>
+      <c r="T33">
+        <v>0.05578073475054284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.592882</v>
+      </c>
+      <c r="H34">
+        <v>107.185764</v>
+      </c>
+      <c r="I34">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J34">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>80.178917</v>
+      </c>
+      <c r="N34">
+        <v>240.536751</v>
+      </c>
+      <c r="O34">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P34">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q34">
+        <v>4297.019237668794</v>
+      </c>
+      <c r="R34">
+        <v>25782.11542601276</v>
+      </c>
+      <c r="S34">
+        <v>0.0951025186889496</v>
+      </c>
+      <c r="T34">
+        <v>0.07677282727249068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="H25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="I25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="J25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="N25">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="O25">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="P25">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="Q25">
-        <v>1286.319202968122</v>
-      </c>
-      <c r="R25">
-        <v>1286.319202968122</v>
-      </c>
-      <c r="S25">
-        <v>0.03222964331029111</v>
-      </c>
-      <c r="T25">
-        <v>0.03222964331029111</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.592882</v>
+      </c>
+      <c r="H35">
+        <v>107.185764</v>
+      </c>
+      <c r="I35">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J35">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N35">
+        <v>238.036453</v>
+      </c>
+      <c r="O35">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P35">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q35">
+        <v>4252.353179109183</v>
+      </c>
+      <c r="R35">
+        <v>25514.11907465509</v>
+      </c>
+      <c r="S35">
+        <v>0.09411396024087719</v>
+      </c>
+      <c r="T35">
+        <v>0.07597479975409391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.592882</v>
+      </c>
+      <c r="H36">
+        <v>107.185764</v>
+      </c>
+      <c r="I36">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J36">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.726012</v>
+      </c>
+      <c r="N36">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P36">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q36">
+        <v>628.4307774465841</v>
+      </c>
+      <c r="R36">
+        <v>3770.584664679504</v>
+      </c>
+      <c r="S36">
+        <v>0.01390855996941001</v>
+      </c>
+      <c r="T36">
+        <v>0.01122787794540993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.592882</v>
+      </c>
+      <c r="H37">
+        <v>107.185764</v>
+      </c>
+      <c r="I37">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J37">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>25.708558</v>
+      </c>
+      <c r="N37">
+        <v>51.417116</v>
+      </c>
+      <c r="O37">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P37">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q37">
+        <v>1377.795715284156</v>
+      </c>
+      <c r="R37">
+        <v>5511.182861136624</v>
+      </c>
+      <c r="S37">
+        <v>0.03049365979414445</v>
+      </c>
+      <c r="T37">
+        <v>0.0164109532082173</v>
       </c>
     </row>
   </sheetData>
